--- a/Base de datos_PruebaX.xlsx
+++ b/Base de datos_PruebaX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAMILIA\Desktop\Tesis\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E252B0CA-04AA-484B-B20B-4C1629194CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB127B2-268F-4A56-A284-0ABA078E6604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="2220" windowWidth="17280" windowHeight="9420" xr2:uid="{2DACA287-B08B-4B79-98B4-BCBC5159B5A2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{2DACA287-B08B-4B79-98B4-BCBC5159B5A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Estacion</t>
   </si>
@@ -57,18 +57,6 @@
   </si>
   <si>
     <t>GSI</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>PHM</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
 </sst>
 </file>
@@ -440,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E01A75-DAFB-45B5-89E5-BA8433FC2EA4}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.06951871657754E-2</v>
       </c>
@@ -493,11 +481,8 @@
       <c r="G2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.29946524064171121</v>
       </c>
@@ -519,11 +504,8 @@
       <c r="G3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.34224598930481281</v>
       </c>
@@ -545,11 +527,8 @@
       <c r="G4">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.87165775401069523</v>
       </c>
@@ -570,9 +549,6 @@
       </c>
       <c r="G5">
         <v>0.41666666666666669</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
